--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2199781.307386463</v>
+        <v>-2201778.980399308</v>
       </c>
     </row>
     <row r="7">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>66.28082130611182</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>313.0467799069399</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>182.6042718318677</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>318.8655711119811</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>9.461970681989468</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>162.336490673523</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>103.5280487491366</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -947,16 +947,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>313.2070399508087</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>44.82579829756096</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>247.488640979782</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>121.2636008304492</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>162.6587430251097</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>279.5106614771179</v>
+        <v>112.5230191874439</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>155.5905547461164</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>105.6571329437492</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1664,7 +1664,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>143.6322711582013</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>102.155569337651</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>159.0355652397064</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,22 +2053,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>224.797802735454</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>28.22523322473833</v>
       </c>
       <c r="S22" t="n">
-        <v>77.98546747605566</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,25 +2476,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C25" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D25" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E25" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F25" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G25" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H25" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I25" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.83246227415164</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S25" t="n">
         <v>129.7889198539626</v>
@@ -2530,7 +2530,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U25" t="n">
-        <v>218.1054622689372</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V25" t="n">
         <v>184.0057531941873</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522957</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D28" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E28" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2767,19 +2767,19 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U28" t="n">
-        <v>218.1054622689365</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V28" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W28" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X28" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y28" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D31" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789518</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463111</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3004,19 +3004,19 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689361</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X31" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3044,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I32" t="n">
         <v>81.77913505274077</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T34" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689365</v>
+        <v>218.1054622689363</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898712</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857165</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692846</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329054</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373688</v>
+        <v>98.36167833373646</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789542</v>
+        <v>80.78193823789515</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463127</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415277</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287485</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689375</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593964</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373703</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789526</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T40" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U40" t="n">
-        <v>218.105462268937</v>
+        <v>218.1054622689365</v>
       </c>
       <c r="V40" t="n">
         <v>184.0057531941873</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3916,7 +3916,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415232</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4189,7 +4189,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>218.1054622689368</v>
+        <v>218.1054622689361</v>
       </c>
       <c r="V46" t="n">
         <v>184.0057531941873</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2180.35792228332</v>
+        <v>1275.721855233157</v>
       </c>
       <c r="C2" t="n">
-        <v>1811.395405342909</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1453.129706736158</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1067.341454137914</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>656.3555493483066</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>238.3917412464934</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834948</v>
+        <v>1649.187613494237</v>
       </c>
       <c r="X2" t="n">
-        <v>2247.308246834948</v>
+        <v>1275.721855233157</v>
       </c>
       <c r="Y2" t="n">
-        <v>2247.308246834948</v>
+        <v>1275.721855233157</v>
       </c>
     </row>
     <row r="3">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T4" t="n">
-        <v>352.6741383092202</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U4" t="n">
-        <v>63.50052796378816</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>2243.755667775683</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>959.5129866402885</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="C5" t="n">
-        <v>959.5129866402885</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D5" t="n">
-        <v>959.5129866402885</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4595,22 +4595,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>1346.11282670441</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X5" t="n">
-        <v>1346.11282670441</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="Y5" t="n">
-        <v>1346.11282670441</v>
+        <v>2212.181128500977</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4665,22 +4665,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>257.3478788207</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="C7" t="n">
-        <v>257.3478788207</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="D7" t="n">
-        <v>257.3478788207</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="E7" t="n">
-        <v>257.3478788207</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="F7" t="n">
-        <v>257.3478788207</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
         <v>99.59950625323012</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>682.8504000674837</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>682.8504000674837</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>682.8504000674837</v>
       </c>
       <c r="U7" t="n">
-        <v>478.1404579642301</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="V7" t="n">
-        <v>478.1404579642301</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="W7" t="n">
-        <v>478.1404579642301</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="X7" t="n">
-        <v>478.1404579642301</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="Y7" t="n">
-        <v>257.3478788207</v>
+        <v>393.6767897220517</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1075.055971578407</v>
+        <v>1700.479318410388</v>
       </c>
       <c r="C8" t="n">
-        <v>1075.055971578407</v>
+        <v>1700.479318410388</v>
       </c>
       <c r="D8" t="n">
-        <v>1075.055971578407</v>
+        <v>1342.213619803637</v>
       </c>
       <c r="E8" t="n">
-        <v>1075.055971578407</v>
+        <v>956.4253672053931</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>545.4394624157856</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.661061815299</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W8" t="n">
-        <v>1838.661061815299</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X8" t="n">
-        <v>1465.195303554219</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="Y8" t="n">
-        <v>1075.055971578407</v>
+        <v>1700.479318410388</v>
       </c>
     </row>
     <row r="9">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>614.4693688655818</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>614.4693688655818</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,25 +5024,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>485.5200852635878</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,7 +5173,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>266.1532743881928</v>
+        <v>203.9414681711437</v>
       </c>
       <c r="C13" t="n">
         <v>97.21709146028584</v>
@@ -5227,22 +5227,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>898.7925182488384</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>644.1080300429516</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W13" t="n">
-        <v>644.1080300429516</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="X13" t="n">
-        <v>644.1080300429516</v>
+        <v>385.5899330013834</v>
       </c>
       <c r="Y13" t="n">
-        <v>423.3154508994214</v>
+        <v>385.5899330013834</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,25 +5261,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,7 +5288,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5303,25 +5303,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636247</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1096.475226584133</v>
+        <v>1117.347795643215</v>
       </c>
       <c r="C16" t="n">
-        <v>927.5390436562257</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D16" t="n">
-        <v>777.4224042438899</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E16" t="n">
         <v>674.2349604684848</v>
@@ -5437,19 +5437,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="Y16" t="n">
-        <v>1278.123691414372</v>
+        <v>1298.996260473455</v>
       </c>
     </row>
     <row r="17">
@@ -5495,25 +5495,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>693.7762810288177</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C19" t="n">
-        <v>524.8400981009108</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D19" t="n">
-        <v>524.8400981009108</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E19" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5701,22 +5701,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1075.21084526296</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V19" t="n">
-        <v>1075.21084526296</v>
+        <v>782.7991340754431</v>
       </c>
       <c r="W19" t="n">
-        <v>1075.21084526296</v>
+        <v>493.3819640384826</v>
       </c>
       <c r="X19" t="n">
-        <v>1075.21084526296</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y19" t="n">
-        <v>854.4182661194303</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="20">
@@ -5741,10 +5741,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028562</v>
@@ -5753,7 +5753,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5771,7 +5771,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>565.9270610048577</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C22" t="n">
-        <v>565.9270610048577</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1470.405933967258</v>
       </c>
       <c r="S22" t="n">
-        <v>1420.143071087139</v>
+        <v>1270.48592388281</v>
       </c>
       <c r="T22" t="n">
-        <v>1196.357655876645</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="U22" t="n">
-        <v>1196.357655876645</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="V22" t="n">
-        <v>1196.357655876645</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="W22" t="n">
-        <v>1196.357655876645</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X22" t="n">
-        <v>968.3681049786276</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y22" t="n">
-        <v>747.5755258350974</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,34 +6054,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>1099.417155020476</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M24" t="n">
-        <v>1406.737288300438</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N24" t="n">
-        <v>1736.59991596447</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183167</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
         <v>2536.440602918915</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C25" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D25" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E25" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F25" t="n">
         <v>320.8847398504512</v>
@@ -6148,10 +6148,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K25" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L25" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M25" t="n">
         <v>1048.866260860496</v>
@@ -6166,16 +6166,16 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q25" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R25" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S25" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T25" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U25" t="n">
         <v>1489.892037025262</v>
@@ -6187,10 +6187,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X25" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y25" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="26">
@@ -6203,73 +6203,73 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6291,37 +6291,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M27" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1771.104817265285</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2050.644882483982</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C28" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F28" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G28" t="n">
-        <v>221.5295092103126</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H28" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K28" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L28" t="n">
         <v>709.8489468649691</v>
@@ -6421,13 +6421,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W28" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X28" t="n">
-        <v>924.2611010045205</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="29">
@@ -6440,40 +6440,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6482,28 +6482,28 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,16 +6528,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6546,19 +6546,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108328</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C31" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F31" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6652,19 +6652,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W31" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="32">
@@ -6677,31 +6677,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6719,28 +6719,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,25 +6765,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643586</v>
@@ -6795,10 +6795,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F34" t="n">
         <v>320.8847398504512</v>
@@ -6853,7 +6853,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="35">
@@ -7032,10 +7032,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7072,19 +7072,19 @@
         <v>659.4602391108324</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083198</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504505</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7093,13 +7093,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862496</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045201</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010311</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="38">
@@ -7151,52 +7151,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7269,10 +7269,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F40" t="n">
         <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7375,7 +7375,7 @@
         <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,31 +7394,31 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
         <v>3183.709822619127</v>
@@ -7430,13 +7430,13 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7506,10 +7506,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7552,7 +7552,7 @@
         <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504512</v>
@@ -7564,16 +7564,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7637,7 +7637,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822463</v>
@@ -7655,19 +7655,19 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014293</v>
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
         <v>559.3441472229673</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231157</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776759</v>
+        <v>124.3400780863231</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,16 +9240,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>199.7396287231156</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,10 +9258,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>180.0237016735865</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,19 +9963,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>283.6093329825492</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298108</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,7 +10194,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>316.4530203573688</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>52.22611186406762</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22601,7 +22601,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>24.24142543582093</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>61.58968815487859</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23467,22 +23467,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>23.61454994042651</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>44.27839330891814</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23719,7 +23719,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20.79641494223085</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,22 +23941,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>27.33984058837402</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24139,10 +24139,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>81.73911917905447</v>
       </c>
       <c r="S22" t="n">
-        <v>119.9353425075476</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>9.521272659185342e-13</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1286758.5990702</v>
+        <v>1286758.599070199</v>
       </c>
     </row>
     <row r="3">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18391.92434782022</v>
+        <v>18391.92434782021</v>
       </c>
       <c r="C2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="D2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.04424660707</v>
       </c>
       <c r="E2" t="n">
         <v>19551.45298688544</v>
       </c>
       <c r="F2" t="n">
-        <v>19551.45298688542</v>
+        <v>19551.45298688544</v>
       </c>
       <c r="G2" t="n">
-        <v>19551.45298688543</v>
+        <v>19551.45298688545</v>
       </c>
       <c r="H2" t="n">
         <v>19551.45298688544</v>
@@ -26335,25 +26335,25 @@
         <v>20526.04424660709</v>
       </c>
       <c r="J2" t="n">
+        <v>20526.04424660707</v>
+      </c>
+      <c r="K2" t="n">
         <v>20526.04424660709</v>
       </c>
-      <c r="K2" t="n">
-        <v>20526.04424660713</v>
-      </c>
       <c r="L2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="M2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="N2" t="n">
         <v>20526.04424660709</v>
       </c>
       <c r="O2" t="n">
-        <v>20526.04424660707</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="P2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.0442466071</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>54505.51210371254</v>
+      </c>
+      <c r="J3" t="n">
+        <v>176423.2191925928</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>134801.0152338373</v>
+      </c>
+      <c r="N3" t="n">
         <v>54505.51210371256</v>
-      </c>
-      <c r="J3" t="n">
-        <v>176423.219192593</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>134801.0152338372</v>
-      </c>
-      <c r="N3" t="n">
-        <v>54505.51210371254</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,13 +26421,13 @@
         <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512227</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143915</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
@@ -26436,28 +26436,28 @@
         <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="J4" t="n">
-        <v>37464.45686275958</v>
+        <v>37464.45686275962</v>
       </c>
       <c r="K4" t="n">
         <v>37464.45686275957</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275962</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.4568627596</v>
+        <v>37464.45686275958</v>
       </c>
       <c r="N4" t="n">
+        <v>37464.45686275958</v>
+      </c>
+      <c r="O4" t="n">
+        <v>37464.45686275958</v>
+      </c>
+      <c r="P4" t="n">
         <v>37464.45686275959</v>
-      </c>
-      <c r="O4" t="n">
-        <v>37464.45686275957</v>
-      </c>
-      <c r="P4" t="n">
-        <v>37464.4568627596</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26491,22 +26491,22 @@
         <v>97715.10582002539</v>
       </c>
       <c r="J5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="K5" t="n">
         <v>97715.10582002538</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="M5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
         <v>97715.1058200254</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-762486.5762396586</v>
+        <v>-762699.9882295373</v>
       </c>
       <c r="C6" t="n">
         <v>-219107.992068025</v>
       </c>
       <c r="D6" t="n">
-        <v>-219107.9920680251</v>
+        <v>-219107.992068025</v>
       </c>
       <c r="E6" t="n">
-        <v>-612641.5790601664</v>
+        <v>-612739.0381861386</v>
       </c>
       <c r="F6" t="n">
-        <v>-87481.54258327035</v>
+        <v>-87579.00170924245</v>
       </c>
       <c r="G6" t="n">
-        <v>-87481.54258327029</v>
+        <v>-87579.00170924244</v>
       </c>
       <c r="H6" t="n">
-        <v>-87481.54258327023</v>
+        <v>-87579.00170924244</v>
       </c>
       <c r="I6" t="n">
-        <v>-169159.0305398905</v>
+        <v>-169159.0305398904</v>
       </c>
       <c r="J6" t="n">
-        <v>-291076.7376287709</v>
+        <v>-291076.7376287708</v>
       </c>
       <c r="K6" t="n">
-        <v>-114653.5184361777</v>
+        <v>-114653.5184361779</v>
       </c>
       <c r="L6" t="n">
         <v>-114653.5184361779</v>
       </c>
       <c r="M6" t="n">
-        <v>-249454.5336700151</v>
+        <v>-249454.5336700152</v>
       </c>
       <c r="N6" t="n">
-        <v>-169159.0305398904</v>
+        <v>-169159.0305398905</v>
       </c>
       <c r="O6" t="n">
-        <v>-114653.5184361779</v>
+        <v>-114653.5184361778</v>
       </c>
       <c r="P6" t="n">
         <v>-114653.5184361779</v>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="J2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="K2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="L2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964065</v>
-      </c>
-      <c r="J2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="K2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="L2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964071</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,10 +26744,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="F3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="F3" t="n">
-        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26756,13 +26756,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>141.3185009324895</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27433,13 +27433,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>30.37539760543194</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>242.6756726418385</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>63.37316471551415</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>261.744843021871</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27667,16 +27667,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>36.03392876660428</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>101.8393936825969</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,7 +27828,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>38.79323326219568</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,22 +27856,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>285.6124449112623</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>251.1254269956853</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>7.012336859473123</v>
+        <v>173.9999791491472</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="26">
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="32">
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32166,10 +32166,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,7 +35264,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>350.3150673110549</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092005</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>510.1640057735818</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980128</v>
@@ -35978,10 +35978,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
@@ -36215,13 +36215,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>429.2814066296109</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36528,10 +36528,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O25" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P25" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q25" t="n">
         <v>107.3575901015154</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>490.7027479140739</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36762,10 +36762,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N28" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O28" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P28" t="n">
         <v>246.5154907414414</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,22 +36914,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>429.2814066296115</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -36999,10 +36999,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N31" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P31" t="n">
         <v>246.5154907414414</v>
@@ -37163,13 +37163,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37637,13 +37637,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
